--- a/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
+++ b/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -665,7 +665,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:concept.id</t>
@@ -692,7 +692,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -800,7 +800,8 @@
     <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.holder` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RegulatedAuthorization.holder` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RegulatedAuthorization.holder` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:holder.id</t>
@@ -831,7 +832,8 @@
     <t>The regulatory authority or authorizing body granting the authorization. For example, European Medicines Agency (EMA), Food and Drug Administration (FDA), Health Canada (HC), etc.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.regulator` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RegulatedAuthorization.regulator` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RegulatedAuthorization.regulator` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:regulator.id</t>
@@ -858,7 +860,8 @@
     <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.attachedDocument` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RegulatedAuthorization.attachedDocument` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RegulatedAuthorization.attachedDocument` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:attachedDocument.id</t>
@@ -1241,7 +1244,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="109.7109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="207.0078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
+++ b/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -664,8 +664,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:concept.id</t>
@@ -692,8 +692,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:reference.id</t>
@@ -899,6 +899,157 @@
   </si>
   <si>
     <t>Extension.extension:case.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Identifier by which this case can be referenced</t>
+  </si>
+  <si>
+    <t>Identifier by which this case can be referenced.</t>
+  </si>
+  <si>
+    <t>Element `RegulatedAuthorization.case.identifier` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
+Element `RegulatedAuthorization.case.identifier` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:identifier.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:identifier.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:identifier.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:identifier.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:type</t>
+  </si>
+  <si>
+    <t>The defining type of case</t>
+  </si>
+  <si>
+    <t>The defining type of case.</t>
+  </si>
+  <si>
+    <t>Element `RegulatedAuthorization.case.type` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
+Element `RegulatedAuthorization.case.type` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:type.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t>The type of a case involved in an application.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-regulated-authorization-case-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:status</t>
+  </si>
+  <si>
+    <t>The status associated with the case</t>
+  </si>
+  <si>
+    <t>The status associated with the case.</t>
+  </si>
+  <si>
+    <t>Element `RegulatedAuthorization.case.status` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
+Element `RegulatedAuthorization.case.status` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:status.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:status.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:status.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:status.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Relevant date for this case</t>
+  </si>
+  <si>
+    <t>Relevant date for this case.</t>
+  </si>
+  <si>
+    <t>Element `RegulatedAuthorization.case.date[x]` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
+Element `RegulatedAuthorization.case.date[x]` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:date.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:date.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:date.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:date.value[x]</t>
+  </si>
+  <si>
+    <t>Period
+dateTime</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:application</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>Applications submitted to obtain a regulated authorization. Steps within the longer running case or procedure</t>
+  </si>
+  <si>
+    <t>A regulatory submission from an organization to a regulator, as part of an assessing case. Multiple applications may occur over time, with more or different information to support or modify the submission or the authorization. The applications can be considered as steps within the longer running case or procedure for this authorization process.</t>
+  </si>
+  <si>
+    <t>Element `RegulatedAuthorization.case.application` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
+Element `RegulatedAuthorization.case.application` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:application.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:application.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:application.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RegulatedAuthorization.case</t>
+  </si>
+  <si>
+    <t>Extension.extension:case.extension:application.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:case.url</t>
@@ -1221,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1255,7 +1406,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.22265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -9752,7 +9903,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -9774,14 +9925,12 @@
         <v>93</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -9845,7 +9994,7 @@
         <v>84</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
@@ -9853,15 +10002,17 @@
         <v>285</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>86</v>
@@ -9876,24 +10027,24 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -9935,30 +10086,30 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9969,7 +10120,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -9981,13 +10132,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10038,7 +10189,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10050,29 +10201,29 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -10084,16 +10235,16 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10101,7 +10252,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>77</v>
@@ -10131,42 +10282,42 @@
         <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10174,10 +10325,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -10189,22 +10340,24 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10246,21 +10399,2632 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AK86" t="s" s="2">
+      <c r="AK87" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>119</v>
       </c>
     </row>

--- a/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
+++ b/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,7 +408,7 @@
     <t>Overall type of this authorization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-regulated-authorization-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -476,12 +476,6 @@
     <t>Extension.extension:region.value[x]</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:status</t>
   </si>
   <si>
@@ -507,15 +501,6 @@
   </si>
   <si>
     <t>Extension.extension:status.value[x]</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:statusDate</t>
@@ -664,8 +649,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:concept.id</t>
@@ -692,8 +676,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:reference.id</t>
@@ -708,7 +691,7 @@
     <t>Extension.extension:indication.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic)
 </t>
   </si>
   <si>
@@ -749,10 +732,13 @@
     <t>Extension.extension:intendedUse.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>The overall intended use of a product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-product-intended-use-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:basis</t>
@@ -785,7 +771,7 @@
     <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-regulated-authorization-basis-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-basis-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:holder</t>
@@ -816,7 +802,7 @@
     <t>Extension.extension:holder.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -876,7 +862,7 @@
     <t>Extension.extension:attachedDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -961,7 +947,7 @@
     <t>The type of a case involved in an application.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-regulated-authorization-case-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-case-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:status</t>
@@ -1406,7 +1392,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3368,13 +3354,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3412,13 +3398,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3443,14 +3429,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3519,7 +3505,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3622,7 +3608,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3727,7 +3713,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3770,7 +3756,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3832,7 +3818,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>121</v>
@@ -3861,10 +3847,10 @@
         <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3891,13 +3877,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3935,13 +3921,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3966,14 +3952,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4042,7 +4028,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4145,7 +4131,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4250,7 +4236,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4293,7 +4279,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4355,7 +4341,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -4381,13 +4367,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4458,13 +4444,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4489,14 +4475,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4565,7 +4551,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4668,7 +4654,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4773,7 +4759,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4816,7 +4802,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4878,7 +4864,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4904,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4981,13 +4967,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5012,14 +4998,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5088,7 +5074,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5191,7 +5177,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5294,13 +5280,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5325,10 +5311,10 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5399,10 +5385,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5502,10 +5488,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5607,10 +5593,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5650,7 +5636,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5712,10 +5698,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5741,13 +5727,13 @@
         <v>87</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5755,7 +5741,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>77</v>
@@ -5817,13 +5803,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5848,14 +5834,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5924,10 +5910,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6027,10 +6013,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6132,10 +6118,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6175,7 +6161,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6237,10 +6223,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6266,10 +6252,10 @@
         <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6340,13 +6326,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6371,14 +6357,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6447,10 +6433,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6550,10 +6536,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6655,10 +6641,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6698,7 +6684,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6760,10 +6746,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6786,13 +6772,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6863,7 +6849,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6906,7 +6892,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6968,7 +6954,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -6994,13 +6980,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7071,13 +7057,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7102,14 +7088,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7178,7 +7164,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7281,7 +7267,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7386,7 +7372,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7429,7 +7415,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7491,7 +7477,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>121</v>
@@ -7520,10 +7506,10 @@
         <v>122</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7550,13 +7536,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7594,13 +7580,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7625,14 +7611,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7701,7 +7687,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7804,7 +7790,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7909,7 +7895,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7952,7 +7938,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8000,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>121</v>
@@ -8043,10 +8029,10 @@
         <v>122</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8076,10 +8062,10 @@
         <v>123</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -8117,13 +8103,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8148,14 +8134,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8224,7 +8210,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8327,7 +8313,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8432,7 +8418,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8475,7 +8461,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8537,7 +8523,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>121</v>
@@ -8563,13 +8549,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8640,13 +8626,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8671,14 +8657,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8747,7 +8733,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8850,7 +8836,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8955,7 +8941,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8998,7 +8984,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9060,7 +9046,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>121</v>
@@ -9086,13 +9072,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9163,13 +9149,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9194,14 +9180,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9270,7 +9256,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9373,7 +9359,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9478,7 +9464,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9521,7 +9507,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9583,7 +9569,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>121</v>
@@ -9609,13 +9595,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9686,13 +9672,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9717,14 +9703,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9793,7 +9779,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -9896,7 +9882,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -9999,13 +9985,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10030,14 +10016,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10106,10 +10092,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10209,10 +10195,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10314,10 +10300,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10357,7 +10343,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10419,10 +10405,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10445,13 +10431,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10522,7 +10508,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -10553,14 +10539,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10629,10 +10615,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10732,10 +10718,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10837,10 +10823,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10942,10 +10928,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10971,10 +10957,10 @@
         <v>122</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11004,10 +10990,10 @@
         <v>123</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11045,13 +11031,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11076,14 +11062,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11152,10 +11138,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11255,10 +11241,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11360,10 +11346,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11403,7 +11389,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11465,10 +11451,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11494,10 +11480,10 @@
         <v>122</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11524,13 +11510,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11568,13 +11554,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11599,14 +11585,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11675,10 +11661,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11778,10 +11764,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11883,10 +11869,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11926,7 +11912,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -11988,10 +11974,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12014,13 +12000,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12091,13 +12077,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12122,14 +12108,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12198,10 +12184,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12301,10 +12287,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12406,10 +12392,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12449,7 +12435,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12511,10 +12497,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12537,13 +12523,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12614,7 +12600,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -12657,7 +12643,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12719,7 +12705,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>121</v>
@@ -12745,13 +12731,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12953,13 +12939,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>

--- a/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
+++ b/StructureDefinition-ext-R5-RegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,7 +408,7 @@
     <t>Overall type of this authorization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -503,6 +503,15 @@
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:statusDate</t>
   </si>
   <si>
@@ -649,7 +658,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:concept.id</t>
@@ -676,7 +685,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:reference.id</t>
@@ -691,7 +700,7 @@
     <t>Extension.extension:indication.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -732,13 +741,10 @@
     <t>Extension.extension:intendedUse.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
     <t>The overall intended use of a product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:basis</t>
@@ -771,7 +777,7 @@
     <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-basis-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-basis-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:holder</t>
@@ -802,7 +808,7 @@
     <t>Extension.extension:holder.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -862,7 +868,7 @@
     <t>Extension.extension:attachedDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -899,8 +905,7 @@
     <t>Identifier by which this case can be referenced.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.case.identifier` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
-Element `RegulatedAuthorization.case.identifier` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Element `RegulatedAuthorization.case.identifier` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:identifier.id</t>
@@ -928,8 +933,7 @@
     <t>The defining type of case.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.case.type` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
-Element `RegulatedAuthorization.case.type` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Element `RegulatedAuthorization.case.type` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:type.id</t>
@@ -947,7 +951,7 @@
     <t>The type of a case involved in an application.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-case-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-regulated-authorization-case-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:status</t>
@@ -959,8 +963,7 @@
     <t>The status associated with the case.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.case.status` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
-Element `RegulatedAuthorization.case.status` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Element `RegulatedAuthorization.case.status` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:status.id</t>
@@ -987,8 +990,7 @@
     <t>Relevant date for this case.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.case.date[x]` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
-Element `RegulatedAuthorization.case.date[x]` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Element `RegulatedAuthorization.case.date[x]` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:date.id</t>
@@ -1019,8 +1021,7 @@
     <t>A regulatory submission from an organization to a regulator, as part of an assessing case. Multiple applications may occur over time, with more or different information to support or modify the submission or the authorization. The applications can be considered as steps within the longer running case or procedure for this authorization process.</t>
   </si>
   <si>
-    <t>Element `RegulatedAuthorization.case.application` is part of an existing definition because parent element `RegulatedAuthorization.case` requires a cross-version extension.
-Element `RegulatedAuthorization.case.application` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
+    <t>Element `RegulatedAuthorization.case.application` is not mapped to FHIR R4, since FHIR R5 `RegulatedAuthorization` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:case.extension:application.id</t>
@@ -1392,7 +1393,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3877,13 +3878,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3921,13 +3922,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3952,14 +3953,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4028,7 +4029,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4131,7 +4132,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4236,7 +4237,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4279,7 +4280,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4341,7 +4342,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -4367,13 +4368,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4444,13 +4445,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4475,14 +4476,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4654,7 +4655,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4759,7 +4760,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4802,7 +4803,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4864,7 +4865,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4890,13 +4891,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4967,13 +4968,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4998,14 +4999,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5074,7 +5075,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5280,13 +5281,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5311,10 +5312,10 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5385,10 +5386,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5488,10 +5489,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5593,10 +5594,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5636,7 +5637,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5698,10 +5699,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5727,13 +5728,13 @@
         <v>87</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5741,7 +5742,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>77</v>
@@ -5803,13 +5804,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5834,14 +5835,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5910,10 +5911,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6013,10 +6014,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6118,10 +6119,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6161,7 +6162,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6223,10 +6224,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6252,10 +6253,10 @@
         <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6326,13 +6327,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6357,14 +6358,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6433,10 +6434,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6536,10 +6537,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6641,10 +6642,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6684,7 +6685,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6746,10 +6747,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6772,13 +6773,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6849,7 +6850,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6892,7 +6893,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6954,7 +6955,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -6980,13 +6981,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7057,13 +7058,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7088,14 +7089,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7164,7 +7165,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7267,7 +7268,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7372,7 +7373,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7415,7 +7416,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>121</v>
@@ -7506,10 +7507,10 @@
         <v>122</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7536,13 +7537,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7580,13 +7581,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7611,14 +7612,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7687,7 +7688,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7790,7 +7791,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7895,7 +7896,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7938,7 +7939,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8000,7 +8001,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>121</v>
@@ -8029,10 +8030,10 @@
         <v>122</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8062,10 +8063,10 @@
         <v>123</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -8103,13 +8104,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8134,14 +8135,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8210,7 +8211,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8313,7 +8314,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8418,7 +8419,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8461,7 +8462,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8524,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>121</v>
@@ -8549,13 +8550,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8626,13 +8627,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8657,14 +8658,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8733,7 +8734,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8836,7 +8837,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8941,7 +8942,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8984,7 +8985,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9046,7 +9047,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>121</v>
@@ -9072,13 +9073,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9149,13 +9150,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9180,14 +9181,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9256,7 +9257,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9359,7 +9360,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9464,7 +9465,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9507,7 +9508,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9569,7 +9570,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>121</v>
@@ -9595,13 +9596,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9672,13 +9673,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9703,14 +9704,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9779,7 +9780,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -9882,7 +9883,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -9985,13 +9986,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10016,14 +10017,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10092,10 +10093,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10195,10 +10196,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10300,10 +10301,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10343,7 +10344,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10405,10 +10406,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10431,13 +10432,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10508,7 +10509,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -10539,14 +10540,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10615,10 +10616,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10718,10 +10719,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10823,10 +10824,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10928,10 +10929,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10957,10 +10958,10 @@
         <v>122</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10990,10 +10991,10 @@
         <v>123</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11031,7 +11032,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
@@ -11062,14 +11063,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11138,10 +11139,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11241,10 +11242,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11346,10 +11347,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11451,10 +11452,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11480,10 +11481,10 @@
         <v>122</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11510,13 +11511,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11554,13 +11555,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11585,14 +11586,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11661,10 +11662,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11764,10 +11765,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11869,10 +11870,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11912,7 +11913,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -11974,10 +11975,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12000,13 +12001,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12077,13 +12078,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12108,14 +12109,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12184,10 +12185,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12287,10 +12288,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12392,10 +12393,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12435,7 +12436,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12497,10 +12498,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12523,13 +12524,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12600,7 +12601,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -12643,7 +12644,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12705,7 +12706,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>121</v>
@@ -12731,13 +12732,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12939,13 +12940,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
